--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_8_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3743704.154322485</v>
+        <v>3797379.438730436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1183418.911521205</v>
+        <v>1406965.995172603</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383260.7088960335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7811747.292282639</v>
+        <v>7861588.519531825</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>27.3048579580667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -710,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>175.0426595591498</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>117.9920762390807</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>48.49825520096615</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>52.28680872189906</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>4.425197871428745</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>38.13990427964559</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>30.9518491405796</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>195.4186406871859</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>50.09491813359904</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>179.1472986151261</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C11" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D11" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E11" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F11" t="n">
         <v>316.885015469746</v>
       </c>
       <c r="G11" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H11" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I11" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T11" t="n">
-        <v>123.208124435389</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U11" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V11" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W11" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X11" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y11" t="n">
         <v>296.2469083840881</v>
@@ -1467,7 +1469,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I12" t="n">
-        <v>47.74894400914854</v>
+        <v>47.74894400914858</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676738</v>
       </c>
       <c r="S12" t="n">
-        <v>149.2146408812902</v>
+        <v>149.2146408812903</v>
       </c>
       <c r="T12" t="n">
         <v>195.2890311093384</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C13" t="n">
-        <v>77.25579082666202</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E13" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F13" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G13" t="n">
-        <v>76.98582764574813</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H13" t="n">
-        <v>63.219680698667</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I13" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>41.70377341497093</v>
       </c>
       <c r="S13" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T13" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U13" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695759</v>
       </c>
       <c r="V13" t="n">
         <v>162.1466130518625</v>
@@ -1591,7 +1593,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X13" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y13" t="n">
         <v>128.5936230801293</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C14" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D14" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E14" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F14" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H14" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I14" t="n">
-        <v>33.32498986019345</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.51083621917442</v>
+        <v>67.51083621917439</v>
       </c>
       <c r="T14" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U14" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526517</v>
       </c>
       <c r="V14" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W14" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X14" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.2469083840888</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I15" t="n">
-        <v>47.74894400914854</v>
+        <v>47.74894400914858</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676738</v>
       </c>
       <c r="S15" t="n">
-        <v>149.2146408812902</v>
+        <v>149.2146408812903</v>
       </c>
       <c r="T15" t="n">
         <v>195.2890311093384</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.84094990997184</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C16" t="n">
-        <v>77.25579082666238</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D16" t="n">
-        <v>58.6244427462469</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E16" t="n">
-        <v>56.44293237460371</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F16" t="n">
-        <v>55.43001775096579</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G16" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574807</v>
       </c>
       <c r="H16" t="n">
-        <v>63.21968069866699</v>
+        <v>63.21968069866695</v>
       </c>
       <c r="I16" t="n">
-        <v>34.96204714633788</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.70377341497093</v>
+        <v>41.70377341497092</v>
       </c>
       <c r="S16" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T16" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U16" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695756</v>
       </c>
       <c r="V16" t="n">
         <v>162.1466130518625</v>
@@ -1828,7 +1830,7 @@
         <v>196.5319680646255</v>
       </c>
       <c r="X16" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y16" t="n">
         <v>128.5936230801293</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>292.7428113915151</v>
+        <v>292.742811391515</v>
       </c>
       <c r="C17" t="n">
         <v>275.2818614990421</v>
       </c>
       <c r="D17" t="n">
-        <v>264.6920113487175</v>
+        <v>264.6920113487174</v>
       </c>
       <c r="E17" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002962</v>
       </c>
       <c r="F17" t="n">
-        <v>316.885015469746</v>
+        <v>316.8850154697459</v>
       </c>
       <c r="G17" t="n">
-        <v>323.0508974529291</v>
+        <v>323.050897452929</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I17" t="n">
-        <v>33.32498986019348</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917468</v>
       </c>
       <c r="T17" t="n">
-        <v>123.2081244353881</v>
+        <v>123.208124435388</v>
       </c>
       <c r="U17" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V17" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W17" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X17" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I18" t="n">
-        <v>47.74894400914854</v>
+        <v>47.74894400914858</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676738</v>
       </c>
       <c r="S18" t="n">
-        <v>149.2146408812902</v>
+        <v>149.2146408812903</v>
       </c>
       <c r="T18" t="n">
         <v>195.2890311093384</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.84094990997187</v>
+        <v>89.84094990997178</v>
       </c>
       <c r="C19" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666232</v>
       </c>
       <c r="D19" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624684</v>
       </c>
       <c r="E19" t="n">
-        <v>56.44293237460374</v>
+        <v>56.44293237460366</v>
       </c>
       <c r="F19" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096573</v>
       </c>
       <c r="G19" t="n">
-        <v>76.98582764574756</v>
+        <v>76.98582764574806</v>
       </c>
       <c r="H19" t="n">
-        <v>63.21968069866703</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I19" t="n">
-        <v>34.96204714633791</v>
+        <v>34.96204714633785</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.70377341497096</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S19" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T19" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U19" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695759</v>
       </c>
       <c r="V19" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W19" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X19" t="n">
-        <v>135.7186251170717</v>
+        <v>135.7186251170716</v>
       </c>
       <c r="Y19" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E20" t="n">
-        <v>291.9393398002964</v>
+        <v>291.9393398002963</v>
       </c>
       <c r="F20" t="n">
         <v>316.885015469746</v>
@@ -2096,10 +2098,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3302535795012</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I20" t="n">
-        <v>33.3249898601939</v>
+        <v>33.32498986019348</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>67.51083621917445</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T20" t="n">
         <v>123.2081244353881</v>
@@ -2138,16 +2140,16 @@
         <v>161.1737578526518</v>
       </c>
       <c r="V20" t="n">
-        <v>237.7612281981695</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W20" t="n">
-        <v>259.2499384454476</v>
+        <v>259.2499384454475</v>
       </c>
       <c r="X20" t="n">
-        <v>279.7400704065036</v>
+        <v>279.7400704065035</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.2469083840882</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>100.5528696083855</v>
       </c>
       <c r="I21" t="n">
-        <v>47.74894400914854</v>
+        <v>47.74894400914858</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.05405284676732</v>
+        <v>25.05405284676738</v>
       </c>
       <c r="S21" t="n">
-        <v>149.2146408812902</v>
+        <v>149.2146408812903</v>
       </c>
       <c r="T21" t="n">
         <v>195.2890311093384</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.84094990997187</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C22" t="n">
-        <v>77.25579082666241</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D22" t="n">
-        <v>58.62444274624693</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E22" t="n">
-        <v>56.44293237460374</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F22" t="n">
-        <v>55.43001775096582</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G22" t="n">
-        <v>76.98582764574816</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H22" t="n">
-        <v>63.21968069866703</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I22" t="n">
-        <v>34.96204714633791</v>
+        <v>34.96204714633787</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.70377341497096</v>
+        <v>41.7037734149708</v>
       </c>
       <c r="S22" t="n">
-        <v>116.3521968385657</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T22" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U22" t="n">
-        <v>196.2726833695752</v>
+        <v>196.2726833695759</v>
       </c>
       <c r="V22" t="n">
-        <v>162.1466130518626</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W22" t="n">
-        <v>196.5319680646256</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X22" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.5936230801294</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I23" t="n">
-        <v>33.32498986019459</v>
+        <v>33.32498986019341</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="S23" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917437</v>
       </c>
       <c r="T23" t="n">
         <v>123.2081244353881</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.84094990997183</v>
+        <v>89.8409499099718</v>
       </c>
       <c r="C25" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666233</v>
       </c>
       <c r="D25" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624686</v>
       </c>
       <c r="E25" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460367</v>
       </c>
       <c r="F25" t="n">
-        <v>55.43001775096577</v>
+        <v>55.43001775096575</v>
       </c>
       <c r="G25" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574809</v>
       </c>
       <c r="H25" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866696</v>
       </c>
       <c r="I25" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633784</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.70377341497091</v>
+        <v>41.70377341497089</v>
       </c>
       <c r="S25" t="n">
-        <v>116.3521968385659</v>
+        <v>116.3521968385658</v>
       </c>
       <c r="T25" t="n">
-        <v>133.6214948185867</v>
+        <v>133.6214948185866</v>
       </c>
       <c r="U25" t="n">
-        <v>196.2726833695756</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V25" t="n">
         <v>162.1466130518625</v>
@@ -2561,7 +2563,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E26" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F26" t="n">
         <v>316.885015469746</v>
@@ -2573,7 +2575,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I26" t="n">
-        <v>33.32498986019343</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.51083621917422</v>
+        <v>67.51083621917512</v>
       </c>
       <c r="T26" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U26" t="n">
-        <v>161.1737578526523</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V26" t="n">
         <v>237.7612281981694</v>
       </c>
       <c r="W26" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X26" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y26" t="n">
         <v>296.2469083840881</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C28" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D28" t="n">
-        <v>58.62444274624687</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E28" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460339</v>
       </c>
       <c r="F28" t="n">
-        <v>55.43001775096576</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G28" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574813</v>
       </c>
       <c r="H28" t="n">
-        <v>63.21968069866697</v>
+        <v>63.219680698667</v>
       </c>
       <c r="I28" t="n">
-        <v>34.96204714633849</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7037734149709</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S28" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U28" t="n">
         <v>196.2726833695757</v>
@@ -2798,19 +2800,19 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E29" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F29" t="n">
         <v>316.885015469746</v>
       </c>
       <c r="G29" t="n">
-        <v>323.0508974529302</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H29" t="n">
         <v>226.3302535795011</v>
       </c>
       <c r="I29" t="n">
-        <v>33.32498986019343</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917468</v>
       </c>
       <c r="T29" t="n">
         <v>123.2081244353881</v>
@@ -2852,10 +2854,10 @@
         <v>237.7612281981694</v>
       </c>
       <c r="W29" t="n">
-        <v>259.2499384454475</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X29" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y29" t="n">
         <v>296.2469083840881</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.84094990997181</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C31" t="n">
-        <v>77.25579082666235</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D31" t="n">
-        <v>58.62444274624687</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E31" t="n">
-        <v>56.44293237460369</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F31" t="n">
-        <v>55.43001775096683</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G31" t="n">
-        <v>76.9858276457481</v>
+        <v>76.98582764574813</v>
       </c>
       <c r="H31" t="n">
-        <v>63.21968069866697</v>
+        <v>63.219680698667</v>
       </c>
       <c r="I31" t="n">
-        <v>34.96204714633785</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7037734149709</v>
+        <v>41.7037734149708</v>
       </c>
       <c r="S31" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T31" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U31" t="n">
         <v>196.2726833695757</v>
@@ -3035,7 +3037,7 @@
         <v>264.6920113487175</v>
       </c>
       <c r="E32" t="n">
-        <v>291.9393398002963</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F32" t="n">
         <v>316.885015469746</v>
@@ -3044,10 +3046,10 @@
         <v>323.0508974529291</v>
       </c>
       <c r="H32" t="n">
-        <v>226.3302535795011</v>
+        <v>226.3302535795012</v>
       </c>
       <c r="I32" t="n">
-        <v>33.32498986019344</v>
+        <v>33.32498986019347</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.51083621917439</v>
+        <v>67.51083621917468</v>
       </c>
       <c r="T32" t="n">
         <v>123.2081244353881</v>
       </c>
       <c r="U32" t="n">
-        <v>161.1737578526518</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V32" t="n">
-        <v>237.7612281981694</v>
+        <v>237.7612281981695</v>
       </c>
       <c r="W32" t="n">
-        <v>259.2499384454493</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X32" t="n">
-        <v>279.7400704065035</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.2469083840881</v>
+        <v>296.2469083840882</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.84094990997183</v>
+        <v>89.84094990997185</v>
       </c>
       <c r="C34" t="n">
-        <v>77.25579082666236</v>
+        <v>77.25579082666239</v>
       </c>
       <c r="D34" t="n">
-        <v>58.62444274624688</v>
+        <v>58.62444274624691</v>
       </c>
       <c r="E34" t="n">
-        <v>56.4429323746037</v>
+        <v>56.44293237460373</v>
       </c>
       <c r="F34" t="n">
-        <v>55.43001775096594</v>
+        <v>55.43001775096532</v>
       </c>
       <c r="G34" t="n">
-        <v>76.98582764574812</v>
+        <v>76.98582764574815</v>
       </c>
       <c r="H34" t="n">
-        <v>63.21968069866698</v>
+        <v>63.21968069866701</v>
       </c>
       <c r="I34" t="n">
-        <v>34.96204714633787</v>
+        <v>34.96204714633789</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.70377341497092</v>
+        <v>41.70377341497095</v>
       </c>
       <c r="S34" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T34" t="n">
-        <v>133.6214948185866</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U34" t="n">
         <v>196.2726833695757</v>
       </c>
       <c r="V34" t="n">
-        <v>162.1466130518625</v>
+        <v>162.1466130518626</v>
       </c>
       <c r="W34" t="n">
-        <v>196.5319680646255</v>
+        <v>196.5319680646256</v>
       </c>
       <c r="X34" t="n">
         <v>135.7186251170717</v>
       </c>
       <c r="Y34" t="n">
-        <v>128.5936230801293</v>
+        <v>128.5936230801294</v>
       </c>
     </row>
     <row r="35">
@@ -3433,10 +3435,10 @@
         <v>56.4429323746037</v>
       </c>
       <c r="F37" t="n">
-        <v>55.43001775096588</v>
+        <v>55.43001775096577</v>
       </c>
       <c r="G37" t="n">
-        <v>76.98582764574812</v>
+        <v>76.9858276457481</v>
       </c>
       <c r="H37" t="n">
         <v>63.21968069866698</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.70377341497092</v>
+        <v>41.70377341497091</v>
       </c>
       <c r="S37" t="n">
-        <v>116.3521968385658</v>
+        <v>116.3521968385657</v>
       </c>
       <c r="T37" t="n">
         <v>133.6214948185866</v>
       </c>
       <c r="U37" t="n">
-        <v>196.2726833695757</v>
+        <v>196.2726833695759</v>
       </c>
       <c r="V37" t="n">
         <v>162.1466130518625</v>
@@ -3521,7 +3523,7 @@
         <v>226.3302535795011</v>
       </c>
       <c r="I38" t="n">
-        <v>33.32498986019459</v>
+        <v>33.32498986019344</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S38" t="n">
         <v>67.51083621917439</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.70377341497103</v>
+        <v>41.70377341497092</v>
       </c>
       <c r="S40" t="n">
         <v>116.3521968385658</v>
@@ -3715,7 +3717,7 @@
         <v>133.6214948185866</v>
       </c>
       <c r="U40" t="n">
-        <v>196.2726833695759</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V40" t="n">
         <v>162.1466130518625</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>336.1427912911803</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C41" t="n">
-        <v>318.6818413987073</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D41" t="n">
-        <v>308.0919912483827</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E41" t="n">
-        <v>211.2327209094483</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G41" t="n">
-        <v>366.4508773525943</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H41" t="n">
-        <v>269.7302334791663</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I41" t="n">
-        <v>76.72496975985862</v>
+        <v>33.32498986019345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>110.9108161188396</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U41" t="n">
-        <v>204.573737752317</v>
+        <v>161.1737578526514</v>
       </c>
       <c r="V41" t="n">
-        <v>281.1612080978346</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W41" t="n">
-        <v>302.6499183451127</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X41" t="n">
-        <v>323.1400503061687</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.6468882837533</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>76.98582764574813</v>
       </c>
       <c r="H43" t="n">
-        <v>98.02146845511589</v>
+        <v>63.21968069866664</v>
       </c>
       <c r="I43" t="n">
-        <v>78.36202704600305</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>85.10375331463609</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S43" t="n">
-        <v>159.752176738231</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T43" t="n">
-        <v>177.0214747182518</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U43" t="n">
-        <v>239.6726632692409</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V43" t="n">
-        <v>205.5465929515277</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W43" t="n">
-        <v>239.9319479642907</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>336.1427912911803</v>
+        <v>292.7428113915151</v>
       </c>
       <c r="C44" t="n">
-        <v>318.6818413987073</v>
+        <v>275.2818614990421</v>
       </c>
       <c r="D44" t="n">
-        <v>308.0919912483827</v>
+        <v>264.6920113487175</v>
       </c>
       <c r="E44" t="n">
-        <v>335.3393196999615</v>
+        <v>291.9393398002964</v>
       </c>
       <c r="F44" t="n">
-        <v>360.2849953694111</v>
+        <v>316.885015469746</v>
       </c>
       <c r="G44" t="n">
-        <v>366.4508773525943</v>
+        <v>323.0508974529291</v>
       </c>
       <c r="H44" t="n">
-        <v>269.7302334791663</v>
+        <v>226.3302535795011</v>
       </c>
       <c r="I44" t="n">
-        <v>76.72496975985862</v>
+        <v>33.32498986019394</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>110.9108161188396</v>
+        <v>67.51083621917442</v>
       </c>
       <c r="T44" t="n">
-        <v>166.6081043350533</v>
+        <v>123.2081244353881</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>161.1737578526518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>237.7612281981694</v>
       </c>
       <c r="W44" t="n">
-        <v>302.6499183451127</v>
+        <v>259.2499384454476</v>
       </c>
       <c r="X44" t="n">
-        <v>323.1400503061687</v>
+        <v>279.7400704065036</v>
       </c>
       <c r="Y44" t="n">
-        <v>174.3821356389275</v>
+        <v>296.2469083840881</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.240929809637</v>
+        <v>89.84094990997184</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>77.25579082666238</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.6244427462469</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>56.44293237460371</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>55.43001775096579</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>76.98582764574775</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>63.219680698667</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>34.96204714633788</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.70377341497093</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>116.3521968385659</v>
       </c>
       <c r="T46" t="n">
-        <v>177.0214747182518</v>
+        <v>133.6214948185867</v>
       </c>
       <c r="U46" t="n">
-        <v>239.6726632692409</v>
+        <v>196.2726833695757</v>
       </c>
       <c r="V46" t="n">
-        <v>205.5465929515277</v>
+        <v>162.1466130518625</v>
       </c>
       <c r="W46" t="n">
-        <v>239.9319479642907</v>
+        <v>196.5319680646255</v>
       </c>
       <c r="X46" t="n">
-        <v>116.0048927645548</v>
+        <v>135.7186251170717</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.9936029797945</v>
+        <v>128.5936230801293</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="C2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="D2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>100.5973579174901</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>73.01669331338235</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>73.01669331338235</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>16.54272735128172</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>4.472738104198369</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>59.82287214365319</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>112.9366371310088</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>112.9366371310088</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>168.2867711704636</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>168.2867711704636</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6369052099184</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>213.5452898416914</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>213.5452898416914</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>213.5452898416914</v>
       </c>
       <c r="T2" t="n">
-        <v>777.1547729109448</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="U2" t="n">
-        <v>533.7059962668447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="V2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="W2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="X2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
       <c r="Y2" t="n">
-        <v>290.2572196227447</v>
+        <v>157.0713238795908</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>481.618781308658</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="C3" t="n">
-        <v>481.618781308658</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="D3" t="n">
-        <v>481.618781308658</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>5.226870756984082</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.472738104198369</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>4.472738104198369</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>4.472738104198369</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>57.58650309155399</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>112.9366371310088</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>168.2867711704636</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>223.6369052099184</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6369052099184</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>167.1629392478178</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>110.6889732857172</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="X3" t="n">
-        <v>481.618781308658</v>
+        <v>61.70083671908471</v>
       </c>
       <c r="Y3" t="n">
-        <v>481.618781308658</v>
+        <v>61.70083671908471</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.472738104198369</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>31.78686311191134</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.97490130413352</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>114.6657519595698</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>139.0050285944691</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>136.256098559008</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>79.78213259690737</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>79.78213259690737</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>26.96717429195883</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>734.2379156767371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C5" t="n">
-        <v>734.2379156767371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
-        <v>734.2379156767371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>490.789139032637</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>247.340362388537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>959.5872586708092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>959.5872586708092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>734.2379156767371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>734.2379156767371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>734.2379156767371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>734.2379156767371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>734.2379156767371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>734.2379156767371</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>650.9451256761649</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>422.721507412554</v>
       </c>
       <c r="V6" t="n">
-        <v>227.7955745279523</v>
+        <v>422.721507412554</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="7">
@@ -4741,22 +4743,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>513.1241971476163</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>269.6754205035162</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>269.6754205035162</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>269.6754205035162</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
         <v>262.7299197543128</v>
@@ -4838,16 +4840,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>756.5729737917163</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>756.5729737917163</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X8" t="n">
-        <v>756.5729737917163</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>513.1241971476163</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>245.0892324518013</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C9" t="n">
-        <v>70.63620317067424</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D9" t="n">
-        <v>70.63620317067424</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E9" t="n">
-        <v>70.63620317067424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>70.63620317067424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>70.63620317067424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>70.63620317067424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X9" t="n">
-        <v>452.8495312167552</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y9" t="n">
-        <v>245.0892324518013</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="10">
@@ -4987,22 +4989,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
         <v>19.28114311021272</v>
@@ -5021,28 +5023,28 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D11" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E11" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F11" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G11" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H11" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I11" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J11" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K11" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L11" t="n">
         <v>1170.239882220687</v>
@@ -5051,37 +5053,37 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N11" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O11" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P11" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003672</v>
       </c>
       <c r="Q11" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="R11" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S11" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T11" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U11" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V11" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X11" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y11" t="n">
         <v>2115.795709833817</v>
@@ -5115,25 +5117,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I12" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J12" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="K12" t="n">
-        <v>389.8361585289043</v>
+        <v>128.0155738864513</v>
       </c>
       <c r="L12" t="n">
-        <v>512.6865770404646</v>
+        <v>617.997934248436</v>
       </c>
       <c r="M12" t="n">
-        <v>1136.452102248327</v>
+        <v>1241.763459456298</v>
       </c>
       <c r="N12" t="n">
-        <v>1792.43385822365</v>
+        <v>1897.745215431621</v>
       </c>
       <c r="O12" t="n">
-        <v>2326.113330251583</v>
+        <v>2431.424687459554</v>
       </c>
       <c r="P12" t="n">
         <v>2647.936865240548</v>
@@ -5173,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.2942540634035</v>
+        <v>498.2942540634034</v>
       </c>
       <c r="C13" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D13" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E13" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F13" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538291</v>
       </c>
       <c r="G13" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853967</v>
       </c>
       <c r="H13" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I13" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J13" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715117</v>
       </c>
       <c r="K13" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476436</v>
       </c>
       <c r="L13" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021218</v>
       </c>
       <c r="M13" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885113</v>
       </c>
       <c r="N13" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O13" t="n">
         <v>1415.521203172265</v>
       </c>
       <c r="P13" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q13" t="n">
         <v>1711.205292109222</v>
@@ -5236,13 +5238,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W13" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019622</v>
       </c>
       <c r="X13" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y13" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159001</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5260,67 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D14" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E14" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F14" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G14" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H14" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I14" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J14" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K14" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723834</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M14" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N14" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068708</v>
       </c>
       <c r="O14" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601287</v>
       </c>
       <c r="P14" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003671</v>
       </c>
       <c r="Q14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="R14" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S14" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T14" t="n">
-        <v>3362.433995982162</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U14" t="n">
-        <v>3199.632220373423</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V14" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X14" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y14" t="n">
         <v>2115.795709833817</v>
@@ -5352,25 +5354,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I15" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J15" t="n">
-        <v>71.101588215695</v>
+        <v>183.5040598342602</v>
       </c>
       <c r="K15" t="n">
-        <v>128.0155738864515</v>
+        <v>240.4180455050166</v>
       </c>
       <c r="L15" t="n">
-        <v>617.9979342484363</v>
+        <v>730.4004058670012</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.763459456299</v>
+        <v>1354.165931074863</v>
       </c>
       <c r="N15" t="n">
-        <v>1897.745215431622</v>
+        <v>2010.147687050187</v>
       </c>
       <c r="O15" t="n">
-        <v>2431.424687459555</v>
+        <v>2543.827159078119</v>
       </c>
       <c r="P15" t="n">
         <v>2647.936865240548</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C16" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D16" t="n">
-        <v>361.041492878647</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E16" t="n">
-        <v>304.0284298739968</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F16" t="n">
-        <v>248.0385129538293</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G16" t="n">
-        <v>170.2750506853969</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H16" t="n">
         <v>106.41678735341</v>
       </c>
       <c r="I16" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J16" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715111</v>
       </c>
       <c r="K16" t="n">
-        <v>322.4370930476439</v>
+        <v>322.437093047643</v>
       </c>
       <c r="L16" t="n">
-        <v>588.1068164021221</v>
+        <v>588.1068164021212</v>
       </c>
       <c r="M16" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885109</v>
       </c>
       <c r="N16" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O16" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P16" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q16" t="n">
-        <v>1711.205292109222</v>
+        <v>1711.205292109221</v>
       </c>
       <c r="R16" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S16" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T16" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V16" t="n">
         <v>1054.54189666118</v>
       </c>
       <c r="W16" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X16" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y16" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347437</v>
       </c>
       <c r="C17" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.033413984768</v>
       </c>
       <c r="D17" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E17" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352599</v>
       </c>
       <c r="F17" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G17" t="n">
         <v>333.3796118921541</v>
       </c>
       <c r="H17" t="n">
-        <v>104.7631941350824</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I17" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J17" t="n">
         <v>249.2363626397091</v>
@@ -5519,46 +5521,46 @@
         <v>636.9590170723836</v>
       </c>
       <c r="L17" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M17" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N17" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O17" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601287</v>
       </c>
       <c r="P17" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003672</v>
       </c>
       <c r="Q17" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="R17" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S17" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T17" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U17" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V17" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915221</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.795709833817</v>
+        <v>2115.795709833816</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I18" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J18" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.0155738864515</v>
+        <v>128.0155738864513</v>
       </c>
       <c r="L18" t="n">
-        <v>617.9979342484363</v>
+        <v>617.997934248436</v>
       </c>
       <c r="M18" t="n">
-        <v>1046.953878598915</v>
+        <v>1241.763459456298</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.935634574239</v>
+        <v>1897.745215431621</v>
       </c>
       <c r="O18" t="n">
-        <v>2236.615106602171</v>
+        <v>2431.424687459554</v>
       </c>
       <c r="P18" t="n">
         <v>2647.936865240548</v>
@@ -5650,46 +5652,46 @@
         <v>498.2942540634035</v>
       </c>
       <c r="C19" t="n">
-        <v>420.2581017132395</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D19" t="n">
-        <v>361.0414928786466</v>
+        <v>361.0414928786468</v>
       </c>
       <c r="E19" t="n">
-        <v>304.0284298739963</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F19" t="n">
-        <v>248.0385129538288</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G19" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H19" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I19" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569496</v>
       </c>
       <c r="J19" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K19" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476436</v>
       </c>
       <c r="L19" t="n">
-        <v>588.106816402122</v>
+        <v>588.1068164021218</v>
       </c>
       <c r="M19" t="n">
-        <v>873.7644385885117</v>
+        <v>873.7644385885113</v>
       </c>
       <c r="N19" t="n">
-        <v>1160.182765121766</v>
+        <v>1160.182765121765</v>
       </c>
       <c r="O19" t="n">
-        <v>1415.521203172265</v>
+        <v>1415.521203172264</v>
       </c>
       <c r="P19" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q19" t="n">
         <v>1711.205292109222</v>
@@ -5704,19 +5706,19 @@
         <v>1416.581590016168</v>
       </c>
       <c r="U19" t="n">
-        <v>1218.326354289324</v>
+        <v>1218.326354289323</v>
       </c>
       <c r="V19" t="n">
         <v>1054.54189666118</v>
       </c>
       <c r="W19" t="n">
-        <v>856.0247572019621</v>
+        <v>856.0247572019618</v>
       </c>
       <c r="X19" t="n">
-        <v>718.9352368816876</v>
+        <v>718.9352368816874</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.0426883159004</v>
+        <v>589.0426883159003</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C20" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D20" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E20" t="n">
-        <v>979.7795239352608</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F20" t="n">
-        <v>659.6936497233962</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G20" t="n">
-        <v>333.3796118921547</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H20" t="n">
-        <v>104.7631941350828</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I20" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J20" t="n">
-        <v>249.2363626397093</v>
+        <v>249.23636263971</v>
       </c>
       <c r="K20" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723847</v>
       </c>
       <c r="L20" t="n">
         <v>1170.239882220687</v>
       </c>
       <c r="M20" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393354</v>
       </c>
       <c r="N20" t="n">
         <v>2385.44658806871</v>
@@ -5768,16 +5770,16 @@
         <v>2911.753343601289</v>
       </c>
       <c r="P20" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q20" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="R20" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784749</v>
       </c>
       <c r="S20" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T20" t="n">
         <v>3362.433995982161</v>
@@ -5826,25 +5828,25 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I21" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J21" t="n">
-        <v>71.101588215695</v>
+        <v>183.5040598342602</v>
       </c>
       <c r="K21" t="n">
-        <v>389.8361585289043</v>
+        <v>502.2386301474694</v>
       </c>
       <c r="L21" t="n">
-        <v>879.8185188908892</v>
+        <v>992.2209905094541</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.584044098751</v>
+        <v>1615.986515717316</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.935634574239</v>
+        <v>2271.968271692639</v>
       </c>
       <c r="O21" t="n">
-        <v>2236.615106602171</v>
+        <v>2415.724047636609</v>
       </c>
       <c r="P21" t="n">
         <v>2647.936865240548</v>
@@ -5884,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>498.2942540634041</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C22" t="n">
-        <v>420.2581017132401</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D22" t="n">
-        <v>361.0414928786472</v>
+        <v>361.0414928786471</v>
       </c>
       <c r="E22" t="n">
-        <v>304.028429873997</v>
+        <v>304.0284298739969</v>
       </c>
       <c r="F22" t="n">
         <v>248.0385129538295</v>
       </c>
       <c r="G22" t="n">
-        <v>170.275050685397</v>
+        <v>170.2750506853968</v>
       </c>
       <c r="H22" t="n">
-        <v>106.4167873534101</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I22" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J22" t="n">
-        <v>138.7485218715117</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K22" t="n">
-        <v>322.4370930476435</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L22" t="n">
-        <v>588.1068164021218</v>
+        <v>588.1068164021219</v>
       </c>
       <c r="M22" t="n">
-        <v>873.7644385885114</v>
+        <v>873.7644385885116</v>
       </c>
       <c r="N22" t="n">
-        <v>1160.182765121765</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O22" t="n">
         <v>1415.521203172265</v>
@@ -5947,13 +5949,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0247572019625</v>
+        <v>856.0247572019622</v>
       </c>
       <c r="X22" t="n">
-        <v>718.9352368816881</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y22" t="n">
-        <v>589.0426883159009</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C23" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D23" t="n">
-        <v>1274.667745955763</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E23" t="n">
-        <v>979.7795239352614</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F23" t="n">
-        <v>659.6936497233968</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G23" t="n">
-        <v>333.3796118921553</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H23" t="n">
-        <v>104.7631941350835</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I23" t="n">
         <v>71.10158821569499</v>
@@ -5990,7 +5992,7 @@
         <v>249.2363626397093</v>
       </c>
       <c r="K23" t="n">
-        <v>636.959017072384</v>
+        <v>636.9590170723839</v>
       </c>
       <c r="L23" t="n">
         <v>1170.239882220687</v>
@@ -5999,40 +6001,40 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N23" t="n">
-        <v>2385.446588068709</v>
+        <v>2385.44658806871</v>
       </c>
       <c r="O23" t="n">
-        <v>2911.753343601288</v>
+        <v>2911.753343601289</v>
       </c>
       <c r="P23" t="n">
-        <v>3323.269600003673</v>
+        <v>3323.269600003674</v>
       </c>
       <c r="Q23" t="n">
         <v>3555.07941078475</v>
       </c>
       <c r="R23" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S23" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T23" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U23" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V23" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X23" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y23" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J24" t="n">
-        <v>183.5040598342603</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K24" t="n">
-        <v>502.2386301474696</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L24" t="n">
-        <v>813.1120494750152</v>
+        <v>879.8185188908892</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.877574682877</v>
+        <v>1042.536030986251</v>
       </c>
       <c r="N24" t="n">
-        <v>2092.859330658201</v>
+        <v>1698.517786961575</v>
       </c>
       <c r="O24" t="n">
-        <v>2236.615106602171</v>
+        <v>2232.197258989508</v>
       </c>
       <c r="P24" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q24" t="n">
         <v>2662.220283762224</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634036</v>
       </c>
       <c r="C25" t="n">
-        <v>420.25810171324</v>
+        <v>420.2581017132396</v>
       </c>
       <c r="D25" t="n">
-        <v>361.0414928786471</v>
+        <v>361.0414928786468</v>
       </c>
       <c r="E25" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739966</v>
       </c>
       <c r="F25" t="n">
-        <v>248.0385129538294</v>
+        <v>248.0385129538292</v>
       </c>
       <c r="G25" t="n">
         <v>170.2750506853968</v>
@@ -6142,19 +6144,19 @@
         <v>106.41678735341</v>
       </c>
       <c r="I25" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J25" t="n">
-        <v>138.7485218715121</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4370930476441</v>
+        <v>322.4370930476439</v>
       </c>
       <c r="L25" t="n">
-        <v>588.1068164021224</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M25" t="n">
-        <v>873.7644385885119</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N25" t="n">
         <v>1160.182765121766</v>
@@ -6163,16 +6165,16 @@
         <v>1415.521203172265</v>
       </c>
       <c r="P25" t="n">
-        <v>1623.34494164282</v>
+        <v>1623.344941642819</v>
       </c>
       <c r="Q25" t="n">
         <v>1711.205292109222</v>
       </c>
       <c r="R25" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S25" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T25" t="n">
         <v>1416.581590016168</v>
@@ -6184,13 +6186,13 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W25" t="n">
-        <v>856.0247572019623</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X25" t="n">
-        <v>718.9352368816878</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y25" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C26" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D26" t="n">
-        <v>1274.667745955761</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E26" t="n">
-        <v>979.7795239352602</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F26" t="n">
-        <v>659.6936497233955</v>
+        <v>659.6936497233958</v>
       </c>
       <c r="G26" t="n">
-        <v>333.379611892154</v>
+        <v>333.3796118921542</v>
       </c>
       <c r="H26" t="n">
         <v>104.7631941350823</v>
@@ -6224,10 +6226,10 @@
         <v>71.101588215695</v>
       </c>
       <c r="J26" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K26" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723841</v>
       </c>
       <c r="L26" t="n">
         <v>1170.239882220687</v>
@@ -6251,10 +6253,10 @@
         <v>3555.07941078475</v>
       </c>
       <c r="S26" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T26" t="n">
-        <v>3362.433995982162</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U26" t="n">
         <v>3199.632220373422</v>
@@ -6266,10 +6268,10 @@
         <v>2697.600738915223</v>
       </c>
       <c r="X26" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y26" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>498.2942540634044</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C28" t="n">
-        <v>420.2581017132404</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D28" t="n">
-        <v>361.0414928786475</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E28" t="n">
-        <v>304.0284298739974</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F28" t="n">
-        <v>248.0385129538299</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G28" t="n">
-        <v>170.2750506853975</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H28" t="n">
-        <v>106.4167873534107</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I28" t="n">
         <v>71.101588215695</v>
@@ -6385,13 +6387,13 @@
         <v>138.7485218715119</v>
       </c>
       <c r="K28" t="n">
-        <v>322.4370930476439</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L28" t="n">
         <v>588.1068164021221</v>
       </c>
       <c r="M28" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N28" t="n">
         <v>1160.182765121766</v>
@@ -6406,28 +6408,28 @@
         <v>1711.205292109222</v>
       </c>
       <c r="R28" t="n">
-        <v>1669.080268457737</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S28" t="n">
-        <v>1551.55279690363</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T28" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U28" t="n">
         <v>1218.326354289324</v>
       </c>
       <c r="V28" t="n">
-        <v>1054.541896661181</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W28" t="n">
-        <v>856.0247572019629</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X28" t="n">
-        <v>718.9352368816884</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.0426883159012</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C29" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D29" t="n">
-        <v>1274.667745955763</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E29" t="n">
-        <v>979.7795239352614</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F29" t="n">
-        <v>659.6936497233968</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G29" t="n">
-        <v>333.3796118921541</v>
+        <v>333.379611892154</v>
       </c>
       <c r="H29" t="n">
-        <v>104.7631941350823</v>
+        <v>104.7631941350822</v>
       </c>
       <c r="I29" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569485</v>
       </c>
       <c r="J29" t="n">
-        <v>249.2363626397091</v>
+        <v>249.2363626397087</v>
       </c>
       <c r="K29" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723834</v>
       </c>
       <c r="L29" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M29" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N29" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O29" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P29" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q29" t="n">
         <v>3555.07941078475</v>
@@ -6488,25 +6490,25 @@
         <v>3555.07941078475</v>
       </c>
       <c r="S29" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926997</v>
       </c>
       <c r="T29" t="n">
-        <v>3362.433995982162</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U29" t="n">
-        <v>3199.632220373423</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V29" t="n">
-        <v>2959.469363607595</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.600738915224</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X29" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y29" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6530,7 @@
         <v>504.9449248766836</v>
       </c>
       <c r="F30" t="n">
-        <v>358.4103669035686</v>
+        <v>358.4103669035685</v>
       </c>
       <c r="G30" t="n">
         <v>220.9013999505779</v>
@@ -6537,28 +6539,28 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I30" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J30" t="n">
-        <v>71.101588215695</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="K30" t="n">
-        <v>248.484133982606</v>
+        <v>128.0155738864515</v>
       </c>
       <c r="L30" t="n">
-        <v>738.4664943445908</v>
+        <v>617.9979342484363</v>
       </c>
       <c r="M30" t="n">
-        <v>1362.232019552453</v>
+        <v>1241.763459456299</v>
       </c>
       <c r="N30" t="n">
-        <v>2018.213775527776</v>
+        <v>1897.745215431622</v>
       </c>
       <c r="O30" t="n">
-        <v>2551.893247555709</v>
+        <v>2431.424687459555</v>
       </c>
       <c r="P30" t="n">
-        <v>2647.936865240548</v>
+        <v>2527.468305144394</v>
       </c>
       <c r="Q30" t="n">
         <v>2662.220283762224</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2342.168372738932</v>
+        <v>498.2942540634039</v>
       </c>
       <c r="C31" t="n">
-        <v>2264.132220388768</v>
+        <v>420.2581017132399</v>
       </c>
       <c r="D31" t="n">
-        <v>2204.915611554175</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E31" t="n">
-        <v>2147.902548549525</v>
+        <v>304.0284298739968</v>
       </c>
       <c r="F31" t="n">
-        <v>2091.912631629356</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G31" t="n">
-        <v>2014.149169360924</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H31" t="n">
-        <v>1950.290906028937</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I31" t="n">
-        <v>1914.975706891222</v>
+        <v>71.10158821569499</v>
       </c>
       <c r="J31" t="n">
-        <v>1982.622640547039</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K31" t="n">
-        <v>2166.311211723171</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L31" t="n">
-        <v>2431.98093507765</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M31" t="n">
-        <v>2717.638557264039</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N31" t="n">
-        <v>3004.056883797293</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O31" t="n">
-        <v>3259.395321847792</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P31" t="n">
-        <v>3467.219060318347</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q31" t="n">
-        <v>3555.07941078475</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R31" t="n">
-        <v>3512.954387133264</v>
+        <v>1669.080268457737</v>
       </c>
       <c r="S31" t="n">
-        <v>3395.426915579158</v>
+        <v>1551.55279690363</v>
       </c>
       <c r="T31" t="n">
-        <v>3260.455708691696</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U31" t="n">
-        <v>3062.200472964852</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V31" t="n">
-        <v>2898.416015336708</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W31" t="n">
-        <v>2699.89887587749</v>
+        <v>856.0247572019624</v>
       </c>
       <c r="X31" t="n">
-        <v>2562.809355557216</v>
+        <v>718.935236881688</v>
       </c>
       <c r="Y31" t="n">
-        <v>2432.916806991429</v>
+        <v>589.0426883159007</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1820.095900347438</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C32" t="n">
-        <v>1542.033413984769</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D32" t="n">
         <v>1274.667745955762</v>
       </c>
       <c r="E32" t="n">
-        <v>979.7795239352603</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F32" t="n">
-        <v>659.6936497233957</v>
+        <v>659.6936497233964</v>
       </c>
       <c r="G32" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H32" t="n">
         <v>104.7631941350823</v>
       </c>
       <c r="I32" t="n">
-        <v>71.10158821569502</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J32" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397091</v>
       </c>
       <c r="K32" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723836</v>
       </c>
       <c r="L32" t="n">
         <v>1170.239882220687</v>
@@ -6719,28 +6721,28 @@
         <v>3323.269600003674</v>
       </c>
       <c r="Q32" t="n">
-        <v>3555.079410784751</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="R32" t="n">
-        <v>3555.079410784751</v>
+        <v>3555.07941078475</v>
       </c>
       <c r="S32" t="n">
-        <v>3486.886646926999</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T32" t="n">
-        <v>3362.433995982163</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U32" t="n">
         <v>3199.632220373423</v>
       </c>
       <c r="V32" t="n">
-        <v>2959.469363607596</v>
+        <v>2959.469363607595</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915224</v>
       </c>
       <c r="X32" t="n">
-        <v>2415.035011231886</v>
+        <v>2415.035011231887</v>
       </c>
       <c r="Y32" t="n">
         <v>2115.795709833817</v>
@@ -6774,10 +6776,10 @@
         <v>119.3328447905925</v>
       </c>
       <c r="I33" t="n">
-        <v>71.10158821569502</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J33" t="n">
-        <v>71.10158821569502</v>
+        <v>71.101588215695</v>
       </c>
       <c r="K33" t="n">
         <v>128.0155738864515</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2342.168372738933</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C34" t="n">
-        <v>2264.132220388768</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.915611554175</v>
+        <v>361.0414928786466</v>
       </c>
       <c r="E34" t="n">
-        <v>2147.902548549525</v>
+        <v>304.0284298739964</v>
       </c>
       <c r="F34" t="n">
-        <v>2091.912631629358</v>
+        <v>248.0385129538294</v>
       </c>
       <c r="G34" t="n">
-        <v>2014.149169360925</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H34" t="n">
-        <v>1950.290906028938</v>
+        <v>106.4167873534101</v>
       </c>
       <c r="I34" t="n">
-        <v>1914.975706891223</v>
+        <v>71.101588215695</v>
       </c>
       <c r="J34" t="n">
-        <v>1982.62264054704</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K34" t="n">
-        <v>2166.311211723172</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L34" t="n">
-        <v>2431.98093507765</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M34" t="n">
-        <v>2717.63855726404</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N34" t="n">
-        <v>3004.056883797294</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O34" t="n">
-        <v>3259.395321847793</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P34" t="n">
-        <v>3467.219060318348</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q34" t="n">
-        <v>3555.079410784751</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R34" t="n">
-        <v>3512.954387133265</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S34" t="n">
-        <v>3395.426915579159</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T34" t="n">
-        <v>3260.455708691697</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U34" t="n">
-        <v>3062.200472964853</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V34" t="n">
-        <v>2898.416015336709</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W34" t="n">
-        <v>2699.898875877491</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X34" t="n">
-        <v>2562.809355557217</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y34" t="n">
-        <v>2432.916806991429</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1542.033413984769</v>
       </c>
       <c r="D35" t="n">
-        <v>1274.667745955762</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E35" t="n">
-        <v>979.7795239352604</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F35" t="n">
-        <v>659.6936497233958</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G35" t="n">
-        <v>333.3796118921542</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H35" t="n">
         <v>104.7631941350823</v>
@@ -6947,13 +6949,13 @@
         <v>1780.224142393353</v>
       </c>
       <c r="N35" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O35" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P35" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q35" t="n">
         <v>3555.07941078475</v>
@@ -7017,13 +7019,13 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K36" t="n">
-        <v>128.0155738864515</v>
+        <v>389.8361585289043</v>
       </c>
       <c r="L36" t="n">
-        <v>617.9979342484363</v>
+        <v>879.8185188908892</v>
       </c>
       <c r="M36" t="n">
-        <v>1046.953878598915</v>
+        <v>1503.584044098751</v>
       </c>
       <c r="N36" t="n">
         <v>1702.935634574239</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.2942540634039</v>
+        <v>498.2942540634038</v>
       </c>
       <c r="C37" t="n">
-        <v>420.2581017132399</v>
+        <v>420.2581017132398</v>
       </c>
       <c r="D37" t="n">
-        <v>361.0414928786471</v>
+        <v>361.041492878647</v>
       </c>
       <c r="E37" t="n">
-        <v>304.0284298739969</v>
+        <v>304.0284298739967</v>
       </c>
       <c r="F37" t="n">
         <v>248.0385129538293</v>
@@ -7093,16 +7095,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J37" t="n">
-        <v>138.7485218715119</v>
+        <v>138.7485218715118</v>
       </c>
       <c r="K37" t="n">
-        <v>322.4370930476438</v>
+        <v>322.4370930476437</v>
       </c>
       <c r="L37" t="n">
-        <v>588.1068164021221</v>
+        <v>588.106816402122</v>
       </c>
       <c r="M37" t="n">
-        <v>873.7644385885118</v>
+        <v>873.7644385885116</v>
       </c>
       <c r="N37" t="n">
         <v>1160.182765121766</v>
@@ -7123,7 +7125,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T37" t="n">
-        <v>1416.581590016168</v>
+        <v>1416.581590016169</v>
       </c>
       <c r="U37" t="n">
         <v>1218.326354289324</v>
@@ -7138,7 +7140,7 @@
         <v>718.935236881688</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.0426883159007</v>
+        <v>589.0426883159006</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1820.095900347439</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C38" t="n">
-        <v>1542.03341398477</v>
+        <v>1542.033413984769</v>
       </c>
       <c r="D38" t="n">
-        <v>1274.667745955763</v>
+        <v>1274.667745955761</v>
       </c>
       <c r="E38" t="n">
-        <v>979.7795239352614</v>
+        <v>979.7795239352602</v>
       </c>
       <c r="F38" t="n">
-        <v>659.6936497233968</v>
+        <v>659.6936497233955</v>
       </c>
       <c r="G38" t="n">
-        <v>333.3796118921553</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H38" t="n">
-        <v>104.7631941350835</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I38" t="n">
         <v>71.10158821569499</v>
@@ -7175,10 +7177,10 @@
         <v>249.2363626397093</v>
       </c>
       <c r="K38" t="n">
-        <v>636.9590170723839</v>
+        <v>636.959017072384</v>
       </c>
       <c r="L38" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M38" t="n">
         <v>1780.224142393353</v>
@@ -7196,28 +7198,28 @@
         <v>3555.07941078475</v>
       </c>
       <c r="R38" t="n">
-        <v>3555.07941078475</v>
+        <v>3555.079410784748</v>
       </c>
       <c r="S38" t="n">
-        <v>3486.886646926998</v>
+        <v>3486.886646926996</v>
       </c>
       <c r="T38" t="n">
-        <v>3362.433995982161</v>
+        <v>3362.43399598216</v>
       </c>
       <c r="U38" t="n">
-        <v>3199.632220373422</v>
+        <v>3199.632220373421</v>
       </c>
       <c r="V38" t="n">
-        <v>2959.469363607594</v>
+        <v>2959.469363607593</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.600738915223</v>
+        <v>2697.600738915222</v>
       </c>
       <c r="X38" t="n">
-        <v>2415.035011231887</v>
+        <v>2415.035011231885</v>
       </c>
       <c r="Y38" t="n">
-        <v>2115.795709833818</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J39" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K39" t="n">
-        <v>128.0155738864515</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L39" t="n">
-        <v>617.9979342484363</v>
+        <v>625.0890486590299</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.763459456299</v>
+        <v>1248.854573866892</v>
       </c>
       <c r="N39" t="n">
-        <v>1897.745215431622</v>
+        <v>1702.935634574239</v>
       </c>
       <c r="O39" t="n">
-        <v>2431.424687459555</v>
+        <v>2236.615106602171</v>
       </c>
       <c r="P39" t="n">
         <v>2647.936865240548</v>
@@ -7330,16 +7332,16 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J40" t="n">
-        <v>138.7485218715118</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K40" t="n">
-        <v>322.4370930476436</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L40" t="n">
-        <v>588.1068164021219</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7644385885116</v>
+        <v>873.7644385885118</v>
       </c>
       <c r="N40" t="n">
         <v>1160.182765121766</v>
@@ -7351,7 +7353,7 @@
         <v>1623.34494164282</v>
       </c>
       <c r="Q40" t="n">
-        <v>1711.205292109223</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R40" t="n">
         <v>1669.080268457737</v>
@@ -7360,7 +7362,7 @@
         <v>1551.55279690363</v>
       </c>
       <c r="T40" t="n">
-        <v>1416.581590016169</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U40" t="n">
         <v>1218.326354289324</v>
@@ -7369,10 +7371,10 @@
         <v>1054.54189666118</v>
       </c>
       <c r="W40" t="n">
-        <v>856.0247572019625</v>
+        <v>856.0247572019623</v>
       </c>
       <c r="X40" t="n">
-        <v>718.935236881688</v>
+        <v>718.9352368816878</v>
       </c>
       <c r="Y40" t="n">
         <v>589.0426883159006</v>
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1637.680006547167</v>
+        <v>1820.095900347438</v>
       </c>
       <c r="C41" t="n">
-        <v>1315.779156649483</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D41" t="n">
-        <v>1004.57512508546</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E41" t="n">
-        <v>791.2087403284418</v>
+        <v>979.7795239352604</v>
       </c>
       <c r="F41" t="n">
-        <v>791.2087403284418</v>
+        <v>659.6936497233957</v>
       </c>
       <c r="G41" t="n">
-        <v>421.0563389621848</v>
+        <v>333.3796118921541</v>
       </c>
       <c r="H41" t="n">
-        <v>148.6015576700976</v>
+        <v>104.7631941350823</v>
       </c>
       <c r="I41" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J41" t="n">
-        <v>249.2363626397093</v>
+        <v>249.2363626397087</v>
       </c>
       <c r="K41" t="n">
-        <v>636.9590170723839</v>
+        <v>636.9590170723833</v>
       </c>
       <c r="L41" t="n">
-        <v>1170.239882220687</v>
+        <v>1170.239882220686</v>
       </c>
       <c r="M41" t="n">
-        <v>1780.224142393353</v>
+        <v>1780.224142393352</v>
       </c>
       <c r="N41" t="n">
-        <v>2385.44658806871</v>
+        <v>2385.446588068709</v>
       </c>
       <c r="O41" t="n">
-        <v>2911.753343601289</v>
+        <v>2911.753343601288</v>
       </c>
       <c r="P41" t="n">
-        <v>3323.269600003674</v>
+        <v>3323.269600003673</v>
       </c>
       <c r="Q41" t="n">
         <v>3555.07941078475</v>
@@ -7436,25 +7438,25 @@
         <v>3555.07941078475</v>
       </c>
       <c r="S41" t="n">
-        <v>3443.048283391982</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T41" t="n">
-        <v>3443.048283391982</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U41" t="n">
-        <v>3236.408144248228</v>
+        <v>3199.632220373423</v>
       </c>
       <c r="V41" t="n">
-        <v>2952.406923947385</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W41" t="n">
-        <v>2646.699935719998</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X41" t="n">
-        <v>2320.295844501646</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.218179568561</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>71.10158821569499</v>
       </c>
       <c r="K42" t="n">
-        <v>389.8361585289043</v>
+        <v>128.0155738864515</v>
       </c>
       <c r="L42" t="n">
-        <v>879.8185188908892</v>
+        <v>617.9979342484363</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.584044098751</v>
+        <v>1241.763459456299</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.016849473957</v>
+        <v>1897.745215431622</v>
       </c>
       <c r="O42" t="n">
-        <v>2218.69632150189</v>
+        <v>2431.424687459555</v>
       </c>
       <c r="P42" t="n">
-        <v>2630.018080140267</v>
+        <v>2647.936865240548</v>
       </c>
       <c r="Q42" t="n">
         <v>2662.220283762224</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>249.2667351865222</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C43" t="n">
-        <v>249.2667351865222</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D43" t="n">
-        <v>249.2667351865222</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E43" t="n">
-        <v>249.2667351865222</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F43" t="n">
-        <v>249.2667351865222</v>
+        <v>248.038512953829</v>
       </c>
       <c r="G43" t="n">
-        <v>249.2667351865222</v>
+        <v>170.2750506853965</v>
       </c>
       <c r="H43" t="n">
-        <v>150.2551508884254</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I43" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J43" t="n">
-        <v>95.78254177084334</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K43" t="n">
-        <v>236.5051328463067</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L43" t="n">
-        <v>459.2088761001165</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M43" t="n">
-        <v>701.9005181858377</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N43" t="n">
-        <v>945.3528646184233</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O43" t="n">
-        <v>1157.725322568254</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P43" t="n">
-        <v>1322.58308093814</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q43" t="n">
-        <v>1367.477451303874</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R43" t="n">
-        <v>1281.514064117373</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S43" t="n">
-        <v>1120.148229028251</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T43" t="n">
-        <v>941.3386586057741</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U43" t="n">
-        <v>699.2450593439146</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V43" t="n">
-        <v>491.6222381807553</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W43" t="n">
-        <v>249.2667351865222</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X43" t="n">
-        <v>249.2667351865222</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y43" t="n">
-        <v>249.2667351865222</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2126.964445092545</v>
+        <v>1820.095900347439</v>
       </c>
       <c r="C44" t="n">
-        <v>1805.063595194861</v>
+        <v>1542.03341398477</v>
       </c>
       <c r="D44" t="n">
-        <v>1493.859563630838</v>
+        <v>1274.667745955762</v>
       </c>
       <c r="E44" t="n">
-        <v>1155.132978075322</v>
+        <v>979.7795239352608</v>
       </c>
       <c r="F44" t="n">
-        <v>791.2087403284418</v>
+        <v>659.6936497233962</v>
       </c>
       <c r="G44" t="n">
-        <v>421.0563389621848</v>
+        <v>333.3796118921547</v>
       </c>
       <c r="H44" t="n">
-        <v>148.6015576700976</v>
+        <v>104.7631941350828</v>
       </c>
       <c r="I44" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J44" t="n">
-        <v>249.2363626397087</v>
+        <v>249.2363626397093</v>
       </c>
       <c r="K44" t="n">
         <v>636.9590170723833</v>
@@ -7673,25 +7675,25 @@
         <v>3555.07941078475</v>
       </c>
       <c r="S44" t="n">
-        <v>3443.048283391982</v>
+        <v>3486.886646926998</v>
       </c>
       <c r="T44" t="n">
-        <v>3274.757268912131</v>
+        <v>3362.433995982161</v>
       </c>
       <c r="U44" t="n">
-        <v>3274.757268912131</v>
+        <v>3199.632220373422</v>
       </c>
       <c r="V44" t="n">
-        <v>3274.757268912131</v>
+        <v>2959.469363607594</v>
       </c>
       <c r="W44" t="n">
-        <v>2969.050280684744</v>
+        <v>2697.600738915223</v>
       </c>
       <c r="X44" t="n">
-        <v>2642.646189466392</v>
+        <v>2415.035011231886</v>
       </c>
       <c r="Y44" t="n">
-        <v>2466.50261811394</v>
+        <v>2115.795709833817</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7727,25 @@
         <v>71.10158821569499</v>
       </c>
       <c r="J45" t="n">
-        <v>71.10158821569499</v>
+        <v>183.5040598342603</v>
       </c>
       <c r="K45" t="n">
-        <v>128.0155738864515</v>
+        <v>502.2386301474696</v>
       </c>
       <c r="L45" t="n">
-        <v>617.9979342484363</v>
+        <v>992.2209905094544</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.763459456299</v>
+        <v>1615.986515717317</v>
       </c>
       <c r="N45" t="n">
-        <v>1897.745215431622</v>
+        <v>1884.88281579971</v>
       </c>
       <c r="O45" t="n">
-        <v>2431.424687459555</v>
+        <v>2028.63859174368</v>
       </c>
       <c r="P45" t="n">
-        <v>2647.936865240548</v>
+        <v>2439.960350382057</v>
       </c>
       <c r="Q45" t="n">
         <v>2662.220283762224</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.10158821569499</v>
+        <v>498.2942540634035</v>
       </c>
       <c r="C46" t="n">
-        <v>71.10158821569499</v>
+        <v>420.2581017132395</v>
       </c>
       <c r="D46" t="n">
-        <v>71.10158821569499</v>
+        <v>361.0414928786467</v>
       </c>
       <c r="E46" t="n">
-        <v>71.10158821569499</v>
+        <v>304.0284298739965</v>
       </c>
       <c r="F46" t="n">
-        <v>71.10158821569499</v>
+        <v>248.038512953829</v>
       </c>
       <c r="G46" t="n">
-        <v>71.10158821569499</v>
+        <v>170.2750506853969</v>
       </c>
       <c r="H46" t="n">
-        <v>71.10158821569499</v>
+        <v>106.41678735341</v>
       </c>
       <c r="I46" t="n">
         <v>71.10158821569499</v>
       </c>
       <c r="J46" t="n">
-        <v>95.78254177084334</v>
+        <v>138.7485218715119</v>
       </c>
       <c r="K46" t="n">
-        <v>236.5051328463067</v>
+        <v>322.4370930476438</v>
       </c>
       <c r="L46" t="n">
-        <v>459.2088761001165</v>
+        <v>588.1068164021221</v>
       </c>
       <c r="M46" t="n">
-        <v>701.9005181858377</v>
+        <v>873.7644385885117</v>
       </c>
       <c r="N46" t="n">
-        <v>945.3528646184233</v>
+        <v>1160.182765121766</v>
       </c>
       <c r="O46" t="n">
-        <v>1157.725322568254</v>
+        <v>1415.521203172265</v>
       </c>
       <c r="P46" t="n">
-        <v>1322.58308093814</v>
+        <v>1623.34494164282</v>
       </c>
       <c r="Q46" t="n">
-        <v>1367.477451303874</v>
+        <v>1711.205292109222</v>
       </c>
       <c r="R46" t="n">
-        <v>1367.477451303874</v>
+        <v>1669.080268457736</v>
       </c>
       <c r="S46" t="n">
-        <v>1367.477451303874</v>
+        <v>1551.552796903629</v>
       </c>
       <c r="T46" t="n">
-        <v>1188.667880881398</v>
+        <v>1416.581590016168</v>
       </c>
       <c r="U46" t="n">
-        <v>946.5742816195382</v>
+        <v>1218.326354289324</v>
       </c>
       <c r="V46" t="n">
-        <v>738.9514604563789</v>
+        <v>1054.54189666118</v>
       </c>
       <c r="W46" t="n">
-        <v>496.5959574621458</v>
+        <v>856.0247572019621</v>
       </c>
       <c r="X46" t="n">
-        <v>379.4192981040096</v>
+        <v>718.9352368816876</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.6883860032071</v>
+        <v>589.0426883159004</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>275.9990773474602</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.4166826339828</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>285.3222898990705</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>287.1422220577492</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>195.7843015860139</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>187.2509383858129</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>198.5054707469241</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>189.8836337168099</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928323</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>12.55318522064589</v>
+        <v>12.55318522064597</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>228.0605225294202</v>
+        <v>121.6854142385406</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928323</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599055</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>12.55318522064589</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>121.6854142385395</v>
+        <v>8.147564118778007</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>12.55318522064589</v>
+        <v>12.55318522064597</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>268.9277093486027</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>121.6854142385406</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>12.55318522064589</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>18.0997829295776</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>137.5446463829291</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>12.55318522064589</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>189.9222230464498</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>112.8479532401116</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>12.55318522064589</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6854142385399</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>121.6854142385395</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119835</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,16 +10667,16 @@
         <v>12.55318522064589</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>268.9277093486027</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>18.0997829295776</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119835</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>12.55318522064589</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>275.4022781132736</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>121.6854142385395</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,7 +11141,7 @@
         <v>12.55318522064589</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>121.6854142385395</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.09978292957676</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720732</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>12.55318522064589</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>88.34696435069483</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>121.6854142385395</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -25634,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>124.1065987905132</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>360.2849953694111</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>166.6081043350533</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.240929809637</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6557707263275</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>102.0244226459121</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>99.84291227426888</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98.82999765063096</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.3858075454133</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>8.598192143216281</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>179.1186050167369</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.9936029797945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.573737752317</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>281.1612080978346</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.2647526448258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>120.6557707263275</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>102.0244226459121</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.84291227426888</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.82999765063096</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>120.3858075454133</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.6196605983322</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>78.36202704600305</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>85.10375331463609</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>159.752176738231</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>63.11371225218204</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>682721.9559713202</v>
+        <v>664838.1892792083</v>
       </c>
     </row>
     <row r="3">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623512.7195564501</v>
+        <v>681001.8258908552</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>623512.7195564501</v>
+        <v>681001.8258908552</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="E2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="F2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="G2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="H2" t="n">
         <v>821041.7698642833</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>821041.7698642841</v>
+      </c>
+      <c r="J2" t="n">
         <v>821041.7698642839</v>
       </c>
-      <c r="F2" t="n">
-        <v>821041.7698642839</v>
-      </c>
-      <c r="G2" t="n">
-        <v>821041.7698642842</v>
-      </c>
-      <c r="H2" t="n">
-        <v>821041.7698642839</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>821041.7698642843</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821041.7698642841</v>
+      </c>
+      <c r="M2" t="n">
         <v>821041.769864284</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>821041.769864284</v>
+      </c>
+      <c r="O2" t="n">
         <v>821041.7698642841</v>
       </c>
-      <c r="K2" t="n">
-        <v>821041.7698642842</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.769864284</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>821041.7698642841</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642839</v>
-      </c>
-      <c r="O2" t="n">
-        <v>744389.6280850766</v>
-      </c>
-      <c r="P2" t="n">
-        <v>744389.6280850763</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>18736.46764616587</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>59802.01954823615</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>717213.3002186429</v>
+        <v>717213.3002186425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>135052.7668166786</v>
+        <v>86621.13782425846</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>47640.11974484875</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161423.2775258325</v>
+        <v>161423.2775258324</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37272.84029784023</v>
+        <v>71992.82421757237</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346065.6887052709</v>
+        <v>378069.4770490775</v>
       </c>
       <c r="C4" t="n">
         <v>346065.6887052709</v>
@@ -26424,22 +26426,22 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>157137.7302795613</v>
+        <v>157137.7302795614</v>
       </c>
       <c r="F4" t="n">
-        <v>157137.7302795613</v>
+        <v>157137.7302795614</v>
       </c>
       <c r="G4" t="n">
-        <v>157137.7302795613</v>
+        <v>157137.7302795614</v>
       </c>
       <c r="H4" t="n">
-        <v>157137.7302795613</v>
+        <v>157137.7302795614</v>
       </c>
       <c r="I4" t="n">
         <v>157137.7302795613</v>
       </c>
       <c r="J4" t="n">
-        <v>157137.7302795614</v>
+        <v>157137.7302795613</v>
       </c>
       <c r="K4" t="n">
         <v>157137.7302795613</v>
@@ -26448,16 +26450,16 @@
         <v>157137.7302795613</v>
       </c>
       <c r="M4" t="n">
-        <v>157137.7302795614</v>
+        <v>157137.7302795613</v>
       </c>
       <c r="N4" t="n">
         <v>157137.7302795613</v>
       </c>
       <c r="O4" t="n">
-        <v>113280.0661808721</v>
+        <v>157137.7302795613</v>
       </c>
       <c r="P4" t="n">
-        <v>113280.0661808721</v>
+        <v>157137.7302795613</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>37026.88095919076</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26476,40 +26478,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="F5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="G5" t="n">
-        <v>73862.46925788873</v>
+        <v>73862.46925788872</v>
       </c>
       <c r="H5" t="n">
         <v>73862.46925788873</v>
       </c>
       <c r="I5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="J5" t="n">
         <v>73862.46925788875</v>
       </c>
       <c r="K5" t="n">
+        <v>73862.46925788873</v>
+      </c>
+      <c r="L5" t="n">
         <v>73862.46925788875</v>
       </c>
-      <c r="L5" t="n">
-        <v>73862.46925788876</v>
-      </c>
       <c r="M5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="N5" t="n">
-        <v>73862.46925788875</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="O5" t="n">
-        <v>70213.87634770379</v>
+        <v>73862.46925788873</v>
       </c>
       <c r="P5" t="n">
-        <v>70213.87634770379</v>
+        <v>73862.46925788873</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345925.3808637026</v>
+        <v>387208.9442098494</v>
       </c>
       <c r="C6" t="n">
-        <v>426694.8123952507</v>
+        <v>366892.7928470143</v>
       </c>
       <c r="D6" t="n">
-        <v>426694.8123952504</v>
+        <v>426694.8123952506</v>
       </c>
       <c r="E6" t="n">
         <v>-127171.7298918092</v>
       </c>
       <c r="F6" t="n">
-        <v>590041.5703268339</v>
+        <v>590041.5703268332</v>
       </c>
       <c r="G6" t="n">
-        <v>590041.5703268342</v>
+        <v>590041.5703268334</v>
       </c>
       <c r="H6" t="n">
-        <v>590041.5703268339</v>
+        <v>590041.5703268332</v>
       </c>
       <c r="I6" t="n">
-        <v>590041.5703268339</v>
+        <v>590041.5703268338</v>
       </c>
       <c r="J6" t="n">
-        <v>454988.8035101554</v>
+        <v>503420.4325025753</v>
       </c>
       <c r="K6" t="n">
-        <v>590041.5703268342</v>
+        <v>542401.4505819854</v>
       </c>
       <c r="L6" t="n">
         <v>590041.570326834</v>
@@ -26555,13 +26557,13 @@
         <v>428618.2928010015</v>
       </c>
       <c r="N6" t="n">
-        <v>590041.5703268339</v>
+        <v>590041.570326834</v>
       </c>
       <c r="O6" t="n">
-        <v>523622.8452586604</v>
+        <v>518048.7461092616</v>
       </c>
       <c r="P6" t="n">
-        <v>560895.6855565005</v>
+        <v>590041.5703268341</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>89.99103027196551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>89.99103027196551</v>
+      </c>
+      <c r="G2" t="n">
+        <v>89.99103027196551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>89.9910302719655</v>
+      </c>
+      <c r="I2" t="n">
+        <v>89.9910302719655</v>
+      </c>
+      <c r="J2" t="n">
         <v>89.99103027196546</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>89.99103027196546</v>
       </c>
-      <c r="G2" t="n">
-        <v>89.99103027196543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>89.99103027196543</v>
-      </c>
-      <c r="I2" t="n">
-        <v>89.99103027196547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>89.99103027196549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>89.99103027196549</v>
-      </c>
       <c r="L2" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M2" t="n">
         <v>89.99103027196547</v>
@@ -26722,10 +26724,10 @@
         <v>89.99103027196547</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P2" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223246</v>
       </c>
       <c r="F3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223246</v>
       </c>
       <c r="G3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223246</v>
       </c>
       <c r="H3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223246</v>
       </c>
       <c r="I3" t="n">
         <v>562.3764353223251</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -26796,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>888.7698526961875</v>
+        <v>888.7698526961871</v>
       </c>
       <c r="F4" t="n">
-        <v>888.7698526961875</v>
+        <v>888.7698526961871</v>
       </c>
       <c r="G4" t="n">
-        <v>888.7698526961875</v>
+        <v>888.7698526961871</v>
       </c>
       <c r="H4" t="n">
-        <v>888.7698526961875</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="I4" t="n">
-        <v>888.7698526961874</v>
+        <v>888.7698526961873</v>
       </c>
       <c r="J4" t="n">
         <v>888.7698526961875</v>
       </c>
       <c r="K4" t="n">
+        <v>888.7698526961874</v>
+      </c>
+      <c r="L4" t="n">
         <v>888.7698526961875</v>
-      </c>
-      <c r="L4" t="n">
-        <v>888.7698526961877</v>
       </c>
       <c r="M4" t="n">
         <v>888.7698526961874</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>562.3764353223251</v>
+        <v>562.3764353223246</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>185.1050625751794</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>647.7555638185285</v>
+        <v>647.755563818528</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>55.90922630248006</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>185.1050625751793</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185281</v>
+        <v>647.7555638185279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>185.1050625751794</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.7555638185285</v>
+        <v>647.755563818528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>350.9668194392318</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>387.9978795570684</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>154.5666632679263</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>48.05319000498159</v>
+        <v>167.1866232616517</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>39.65300421632026</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.48740654893547</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.24860785016352</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>115.7739448013582</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>151.6664734938554</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27578,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>30.25281694921478</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>171.7297893150732</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27658,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>145.4439200697209</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27701,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27746,22 +27748,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>162.024824415176</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>201.8487380088457</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27822,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27831,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>132.333617782949</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>39.30171471781604</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>26.62568658835133</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954793</v>
       </c>
       <c r="S11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y11" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y13" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954793</v>
       </c>
       <c r="S14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X14" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.99103027196475</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196482</v>
       </c>
       <c r="K16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.99103027196546</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28611,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954793</v>
       </c>
       <c r="S17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="C19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="D19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="E19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="F19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="G19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="H19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="I19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="J19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="K19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="L19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="M19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="N19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="O19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="P19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="R19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="S19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="T19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="U19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="V19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="W19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="X19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.99103027196543</v>
+        <v>89.99103027196551</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I20" t="n">
-        <v>89.991030271965</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28848,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954954793</v>
       </c>
       <c r="S20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.99103027196543</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I23" t="n">
-        <v>89.99103027196432</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29085,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954952878</v>
       </c>
       <c r="S23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="C25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="D25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="E25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="F25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="G25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="H25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="I25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="J25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="K25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="L25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="M25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="N25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="O25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="P25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196468</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="R25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="T25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="U25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="V25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="W25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="X25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.99103027196547</v>
+        <v>89.9910302719655</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>7.853524954954679</v>
       </c>
       <c r="S26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y26" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y28" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G29" t="n">
-        <v>89.99103027196435</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>7.853524954954679</v>
       </c>
       <c r="S29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y29" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y31" t="n">
-        <v>89.99103027196549</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>7.853524954954679</v>
       </c>
       <c r="S32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W32" t="n">
-        <v>89.99103027196372</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y32" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="C34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="D34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="E34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="F34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="G34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="H34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="I34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="J34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="K34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="L34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="M34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="N34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="O34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="P34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Q34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="R34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="S34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="T34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="U34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="V34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="W34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="X34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
       <c r="Y34" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196544</v>
       </c>
     </row>
     <row r="35">
@@ -30241,7 +30243,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="I38" t="n">
-        <v>89.99103027196432</v>
+        <v>89.99103027196547</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30270,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>7.853524954954679</v>
+        <v>7.853524954953328</v>
       </c>
       <c r="S38" t="n">
         <v>89.99103027196547</v>
@@ -30417,7 +30419,7 @@
         <v>89.99103027196547</v>
       </c>
       <c r="O40" t="n">
-        <v>89.99103027196547</v>
+        <v>89.99103027196531</v>
       </c>
       <c r="P40" t="n">
         <v>89.99103027196547</v>
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>7.853524954954679</v>
       </c>
       <c r="S41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>7.853524954954679</v>
       </c>
       <c r="S44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="C46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="D46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="E46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="F46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="G46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="H46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="I46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="J46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="K46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="L46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="M46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="N46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="O46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="P46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="R46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="S46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="T46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="U46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="V46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="W46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="X46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.59105037230029</v>
+        <v>89.99103027196546</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.260809790240501</v>
+        <v>2.260809790240499</v>
       </c>
       <c r="H11" t="n">
-        <v>23.15351826430054</v>
+        <v>23.15351826430052</v>
       </c>
       <c r="I11" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824693</v>
       </c>
       <c r="J11" t="n">
-        <v>191.8834049344249</v>
+        <v>191.8834049344247</v>
       </c>
       <c r="K11" t="n">
-        <v>287.5834833553054</v>
+        <v>287.5834833553051</v>
       </c>
       <c r="L11" t="n">
-        <v>356.7727409733782</v>
+        <v>356.7727409733779</v>
       </c>
       <c r="M11" t="n">
-        <v>396.9784170805677</v>
+        <v>396.9784170805673</v>
       </c>
       <c r="N11" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970882</v>
       </c>
       <c r="O11" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453842</v>
       </c>
       <c r="P11" t="n">
-        <v>325.1072738488221</v>
+        <v>325.1072738488218</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.1420232358341</v>
+        <v>244.1420232358339</v>
       </c>
       <c r="R11" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S11" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510543</v>
       </c>
       <c r="T11" t="n">
-        <v>9.896694856777799</v>
+        <v>9.89669485677779</v>
       </c>
       <c r="U11" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192399</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H12" t="n">
-        <v>11.68257462811094</v>
+        <v>11.68257462811093</v>
       </c>
       <c r="I12" t="n">
-        <v>41.64768884226653</v>
+        <v>41.6476888422665</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2844414460208</v>
+        <v>114.2844414460207</v>
       </c>
       <c r="K12" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892644</v>
       </c>
       <c r="L12" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097329</v>
       </c>
       <c r="M12" t="n">
-        <v>306.4951572506671</v>
+        <v>306.4951572506669</v>
       </c>
       <c r="N12" t="n">
-        <v>314.6071720582883</v>
+        <v>314.607172058288</v>
       </c>
       <c r="O12" t="n">
-        <v>287.8040989333035</v>
+        <v>287.8040989333032</v>
       </c>
       <c r="P12" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515412</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R12" t="n">
-        <v>75.10378130587581</v>
+        <v>75.10378130587576</v>
       </c>
       <c r="S12" t="n">
-        <v>22.4685302225476</v>
+        <v>22.46853022254758</v>
       </c>
       <c r="T12" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.014121440745176</v>
+        <v>1.014121440745175</v>
       </c>
       <c r="H13" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807112</v>
       </c>
       <c r="I13" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895492</v>
       </c>
       <c r="J13" t="n">
-        <v>71.69838586068396</v>
+        <v>71.6983858606839</v>
       </c>
       <c r="K13" t="n">
-        <v>117.8224728429395</v>
+        <v>117.8224728429394</v>
       </c>
       <c r="L13" t="n">
-        <v>150.7722003813329</v>
+        <v>150.7722003813327</v>
       </c>
       <c r="M13" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797187</v>
       </c>
       <c r="N13" t="n">
-        <v>155.1882382914869</v>
+        <v>155.1882382914868</v>
       </c>
       <c r="O13" t="n">
-        <v>143.3414560064182</v>
+        <v>143.3414560064181</v>
       </c>
       <c r="P13" t="n">
-        <v>122.6533786152165</v>
+        <v>122.6533786152164</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.91884173367109</v>
+        <v>84.91884173367102</v>
       </c>
       <c r="R13" t="n">
-        <v>45.5985876902331</v>
+        <v>45.59858769023305</v>
       </c>
       <c r="S13" t="n">
-        <v>17.67337092644093</v>
+        <v>17.67337092644091</v>
       </c>
       <c r="T13" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729384</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.0553157149497369</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.260809790240501</v>
+        <v>2.260809790240499</v>
       </c>
       <c r="H14" t="n">
-        <v>23.15351826430054</v>
+        <v>23.15351826430052</v>
       </c>
       <c r="I14" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824693</v>
       </c>
       <c r="J14" t="n">
-        <v>191.8834049344249</v>
+        <v>191.8834049344247</v>
       </c>
       <c r="K14" t="n">
-        <v>287.5834833553054</v>
+        <v>287.5834833553051</v>
       </c>
       <c r="L14" t="n">
-        <v>356.7727409733782</v>
+        <v>356.7727409733779</v>
       </c>
       <c r="M14" t="n">
-        <v>396.9784170805677</v>
+        <v>396.9784170805673</v>
       </c>
       <c r="N14" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970882</v>
       </c>
       <c r="O14" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453842</v>
       </c>
       <c r="P14" t="n">
-        <v>325.1072738488221</v>
+        <v>325.1072738488218</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.1420232358341</v>
+        <v>244.1420232358339</v>
       </c>
       <c r="R14" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S14" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510543</v>
       </c>
       <c r="T14" t="n">
-        <v>9.896694856777799</v>
+        <v>9.89669485677779</v>
       </c>
       <c r="U14" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192399</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H15" t="n">
-        <v>11.68257462811094</v>
+        <v>11.68257462811093</v>
       </c>
       <c r="I15" t="n">
-        <v>41.64768884226653</v>
+        <v>41.6476888422665</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2844414460208</v>
+        <v>114.2844414460207</v>
       </c>
       <c r="K15" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892644</v>
       </c>
       <c r="L15" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097329</v>
       </c>
       <c r="M15" t="n">
-        <v>306.4951572506671</v>
+        <v>306.4951572506669</v>
       </c>
       <c r="N15" t="n">
-        <v>314.6071720582883</v>
+        <v>314.607172058288</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8040989333035</v>
+        <v>287.8040989333032</v>
       </c>
       <c r="P15" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515412</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R15" t="n">
-        <v>75.10378130587581</v>
+        <v>75.10378130587576</v>
       </c>
       <c r="S15" t="n">
-        <v>22.4685302225476</v>
+        <v>22.46853022254758</v>
       </c>
       <c r="T15" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483171</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.014121440745176</v>
+        <v>1.014121440745175</v>
       </c>
       <c r="H16" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807112</v>
       </c>
       <c r="I16" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895492</v>
       </c>
       <c r="J16" t="n">
-        <v>71.69838586068396</v>
+        <v>71.6983858606839</v>
       </c>
       <c r="K16" t="n">
-        <v>117.8224728429395</v>
+        <v>117.8224728429394</v>
       </c>
       <c r="L16" t="n">
-        <v>150.7722003813329</v>
+        <v>150.7722003813327</v>
       </c>
       <c r="M16" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797187</v>
       </c>
       <c r="N16" t="n">
-        <v>155.1882382914869</v>
+        <v>155.1882382914868</v>
       </c>
       <c r="O16" t="n">
-        <v>143.3414560064182</v>
+        <v>143.3414560064181</v>
       </c>
       <c r="P16" t="n">
-        <v>122.6533786152165</v>
+        <v>122.6533786152164</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.91884173367109</v>
+        <v>84.91884173367102</v>
       </c>
       <c r="R16" t="n">
-        <v>45.5985876902331</v>
+        <v>45.59858769023305</v>
       </c>
       <c r="S16" t="n">
-        <v>17.67337092644093</v>
+        <v>17.67337092644091</v>
       </c>
       <c r="T16" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729384</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.0553157149497369</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.260809790240501</v>
+        <v>2.260809790240499</v>
       </c>
       <c r="H17" t="n">
-        <v>23.15351826430054</v>
+        <v>23.15351826430052</v>
       </c>
       <c r="I17" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824693</v>
       </c>
       <c r="J17" t="n">
-        <v>191.8834049344249</v>
+        <v>191.8834049344247</v>
       </c>
       <c r="K17" t="n">
-        <v>287.5834833553054</v>
+        <v>287.5834833553051</v>
       </c>
       <c r="L17" t="n">
-        <v>356.7727409733782</v>
+        <v>356.7727409733779</v>
       </c>
       <c r="M17" t="n">
-        <v>396.9784170805677</v>
+        <v>396.9784170805673</v>
       </c>
       <c r="N17" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970882</v>
       </c>
       <c r="O17" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453842</v>
       </c>
       <c r="P17" t="n">
-        <v>325.1072738488221</v>
+        <v>325.1072738488218</v>
       </c>
       <c r="Q17" t="n">
-        <v>244.1420232358341</v>
+        <v>244.1420232358339</v>
       </c>
       <c r="R17" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S17" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510543</v>
       </c>
       <c r="T17" t="n">
-        <v>9.896694856777799</v>
+        <v>9.89669485677779</v>
       </c>
       <c r="U17" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192399</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H18" t="n">
-        <v>11.68257462811094</v>
+        <v>11.68257462811093</v>
       </c>
       <c r="I18" t="n">
-        <v>41.64768884226653</v>
+        <v>41.6476888422665</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2844414460208</v>
+        <v>114.2844414460207</v>
       </c>
       <c r="K18" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892644</v>
       </c>
       <c r="L18" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097329</v>
       </c>
       <c r="M18" t="n">
-        <v>306.4951572506671</v>
+        <v>306.4951572506669</v>
       </c>
       <c r="N18" t="n">
-        <v>314.6071720582883</v>
+        <v>314.607172058288</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8040989333035</v>
+        <v>287.8040989333032</v>
       </c>
       <c r="P18" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515412</v>
       </c>
       <c r="Q18" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R18" t="n">
-        <v>75.10378130587581</v>
+        <v>75.10378130587576</v>
       </c>
       <c r="S18" t="n">
-        <v>22.4685302225476</v>
+        <v>22.46853022254758</v>
       </c>
       <c r="T18" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617804</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.014121440745176</v>
+        <v>1.014121440745175</v>
       </c>
       <c r="H19" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807112</v>
       </c>
       <c r="I19" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895492</v>
       </c>
       <c r="J19" t="n">
-        <v>71.69838586068396</v>
+        <v>71.6983858606839</v>
       </c>
       <c r="K19" t="n">
-        <v>117.8224728429395</v>
+        <v>117.8224728429394</v>
       </c>
       <c r="L19" t="n">
-        <v>150.7722003813329</v>
+        <v>150.7722003813327</v>
       </c>
       <c r="M19" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797187</v>
       </c>
       <c r="N19" t="n">
-        <v>155.1882382914869</v>
+        <v>155.1882382914868</v>
       </c>
       <c r="O19" t="n">
-        <v>143.3414560064182</v>
+        <v>143.3414560064181</v>
       </c>
       <c r="P19" t="n">
-        <v>122.6533786152165</v>
+        <v>122.6533786152164</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.91884173367109</v>
+        <v>84.91884173367102</v>
       </c>
       <c r="R19" t="n">
-        <v>45.5985876902331</v>
+        <v>45.59858769023305</v>
       </c>
       <c r="S19" t="n">
-        <v>17.67337092644093</v>
+        <v>17.67337092644091</v>
       </c>
       <c r="T19" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729384</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.0553157149497369</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.260809790240501</v>
+        <v>2.260809790240499</v>
       </c>
       <c r="H20" t="n">
-        <v>23.15351826430054</v>
+        <v>23.15351826430052</v>
       </c>
       <c r="I20" t="n">
-        <v>87.159869438247</v>
+        <v>87.15986943824693</v>
       </c>
       <c r="J20" t="n">
-        <v>191.8834049344249</v>
+        <v>191.8834049344247</v>
       </c>
       <c r="K20" t="n">
-        <v>287.5834833553054</v>
+        <v>287.5834833553051</v>
       </c>
       <c r="L20" t="n">
-        <v>356.7727409733782</v>
+        <v>356.7727409733779</v>
       </c>
       <c r="M20" t="n">
-        <v>396.9784170805677</v>
+        <v>396.9784170805673</v>
       </c>
       <c r="N20" t="n">
-        <v>403.4019428970885</v>
+        <v>403.4019428970882</v>
       </c>
       <c r="O20" t="n">
-        <v>380.9210155453845</v>
+        <v>380.9210155453842</v>
       </c>
       <c r="P20" t="n">
-        <v>325.1072738488221</v>
+        <v>325.1072738488218</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.1420232358341</v>
+        <v>244.1420232358339</v>
       </c>
       <c r="R20" t="n">
-        <v>142.015592986195</v>
+        <v>142.0155929861949</v>
       </c>
       <c r="S20" t="n">
-        <v>51.51820309510547</v>
+        <v>51.51820309510543</v>
       </c>
       <c r="T20" t="n">
-        <v>9.896694856777799</v>
+        <v>9.89669485677779</v>
       </c>
       <c r="U20" t="n">
-        <v>0.18086478321924</v>
+        <v>0.1808647832192399</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.209639879749907</v>
+        <v>1.209639879749906</v>
       </c>
       <c r="H21" t="n">
-        <v>11.68257462811094</v>
+        <v>11.68257462811093</v>
       </c>
       <c r="I21" t="n">
-        <v>41.64768884226653</v>
+        <v>41.6476888422665</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2844414460208</v>
+        <v>114.2844414460207</v>
       </c>
       <c r="K21" t="n">
-        <v>195.3303133892645</v>
+        <v>195.3303133892644</v>
       </c>
       <c r="L21" t="n">
-        <v>262.645711609733</v>
+        <v>262.6457116097329</v>
       </c>
       <c r="M21" t="n">
-        <v>306.4951572506671</v>
+        <v>306.4951572506669</v>
       </c>
       <c r="N21" t="n">
-        <v>314.6071720582883</v>
+        <v>314.607172058288</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8040989333035</v>
+        <v>287.8040989333032</v>
       </c>
       <c r="P21" t="n">
-        <v>230.9881626515414</v>
+        <v>230.9881626515412</v>
       </c>
       <c r="Q21" t="n">
-        <v>154.4094695624618</v>
+        <v>154.4094695624617</v>
       </c>
       <c r="R21" t="n">
-        <v>75.10378130587581</v>
+        <v>75.10378130587576</v>
       </c>
       <c r="S21" t="n">
-        <v>22.4685302225476</v>
+        <v>22.46853022254758</v>
       </c>
       <c r="T21" t="n">
-        <v>4.875697585483175</v>
+        <v>4.875697585483171</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07958157103617811</v>
+        <v>0.07958157103617804</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.014121440745176</v>
+        <v>1.014121440745175</v>
       </c>
       <c r="H22" t="n">
-        <v>9.016461536807119</v>
+        <v>9.016461536807112</v>
       </c>
       <c r="I22" t="n">
-        <v>30.49739750895494</v>
+        <v>30.49739750895492</v>
       </c>
       <c r="J22" t="n">
-        <v>71.69838586068396</v>
+        <v>71.6983858606839</v>
       </c>
       <c r="K22" t="n">
-        <v>117.8224728429395</v>
+        <v>117.8224728429394</v>
       </c>
       <c r="L22" t="n">
-        <v>150.7722003813329</v>
+        <v>150.7722003813327</v>
       </c>
       <c r="M22" t="n">
-        <v>158.9681454797188</v>
+        <v>158.9681454797187</v>
       </c>
       <c r="N22" t="n">
-        <v>155.1882382914869</v>
+        <v>155.1882382914868</v>
       </c>
       <c r="O22" t="n">
-        <v>143.3414560064182</v>
+        <v>143.3414560064181</v>
       </c>
       <c r="P22" t="n">
-        <v>122.6533786152165</v>
+        <v>122.6533786152164</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.91884173367109</v>
+        <v>84.91884173367102</v>
       </c>
       <c r="R22" t="n">
-        <v>45.5985876902331</v>
+        <v>45.59858769023305</v>
       </c>
       <c r="S22" t="n">
-        <v>17.67337092644093</v>
+        <v>17.67337092644091</v>
       </c>
       <c r="T22" t="n">
-        <v>4.333064337729388</v>
+        <v>4.333064337729384</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05531571494973695</v>
+        <v>0.0553157149497369</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.65026766399558</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>53.65026766399558</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>55.90922630247961</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798122</v>
       </c>
       <c r="K11" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814893</v>
       </c>
       <c r="L11" t="n">
-        <v>538.6675405538414</v>
+        <v>538.667540553841</v>
       </c>
       <c r="M11" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461271</v>
       </c>
       <c r="N11" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124815</v>
       </c>
       <c r="O11" t="n">
-        <v>531.6229853864431</v>
+        <v>531.6229853864428</v>
       </c>
       <c r="P11" t="n">
-        <v>415.6729862650352</v>
+        <v>415.6729862650349</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.1513240212893</v>
+        <v>234.1513240212891</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>321.9541114274841</v>
+        <v>57.48887441490541</v>
       </c>
       <c r="L12" t="n">
-        <v>124.0913318298589</v>
+        <v>494.9316771333179</v>
       </c>
       <c r="M12" t="n">
-        <v>630.0661870786487</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N12" t="n">
-        <v>662.6078343185085</v>
+        <v>662.6078343185083</v>
       </c>
       <c r="O12" t="n">
-        <v>539.0701737655886</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P12" t="n">
-        <v>325.0742777666314</v>
+        <v>218.6991694757516</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42769547644028</v>
+        <v>14.42769547644016</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,22 +35573,22 @@
         <v>185.5440112890221</v>
       </c>
       <c r="L13" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M13" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N13" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O13" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P13" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798122</v>
       </c>
       <c r="K14" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814893</v>
       </c>
       <c r="L14" t="n">
-        <v>538.6675405538414</v>
+        <v>538.667540553841</v>
       </c>
       <c r="M14" t="n">
-        <v>616.1457173461272</v>
+        <v>616.1457173461271</v>
       </c>
       <c r="N14" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124815</v>
       </c>
       <c r="O14" t="n">
-        <v>531.6229853864431</v>
+        <v>531.6229853864428</v>
       </c>
       <c r="P14" t="n">
-        <v>415.6729862650352</v>
+        <v>415.6729862650349</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.1513240212893</v>
+        <v>234.1513240212899</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K15" t="n">
-        <v>57.48887441490555</v>
+        <v>57.48887441490541</v>
       </c>
       <c r="L15" t="n">
-        <v>494.931677133318</v>
+        <v>494.9316771333179</v>
       </c>
       <c r="M15" t="n">
-        <v>630.0661870786487</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N15" t="n">
-        <v>662.6078343185085</v>
+        <v>662.6078343185083</v>
       </c>
       <c r="O15" t="n">
-        <v>539.0701737655886</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P15" t="n">
-        <v>218.6991694757507</v>
+        <v>105.161319355989</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.42769547644028</v>
+        <v>14.42769547644016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.33023601597664</v>
+        <v>68.33023601597594</v>
       </c>
       <c r="K16" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L16" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M16" t="n">
         <v>288.5430527135248</v>
       </c>
       <c r="N16" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O16" t="n">
         <v>257.9176141924233</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520754</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.74782875394216</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798122</v>
       </c>
       <c r="K17" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814893</v>
       </c>
       <c r="L17" t="n">
-        <v>538.6675405538414</v>
+        <v>538.667540553841</v>
       </c>
       <c r="M17" t="n">
-        <v>616.1457173461274</v>
+        <v>616.1457173461271</v>
       </c>
       <c r="N17" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124815</v>
       </c>
       <c r="O17" t="n">
-        <v>531.6229853864431</v>
+        <v>531.6229853864428</v>
       </c>
       <c r="P17" t="n">
-        <v>415.6729862650352</v>
+        <v>415.6729862650349</v>
       </c>
       <c r="Q17" t="n">
-        <v>234.1513240212893</v>
+        <v>234.1513240212891</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>57.48887441490555</v>
+        <v>57.48887441490541</v>
       </c>
       <c r="L18" t="n">
-        <v>494.931677133318</v>
+        <v>494.9316771333179</v>
       </c>
       <c r="M18" t="n">
-        <v>433.2888326772514</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N18" t="n">
-        <v>662.6078343185085</v>
+        <v>662.6078343185083</v>
       </c>
       <c r="O18" t="n">
-        <v>539.0701737655886</v>
+        <v>539.0701737655884</v>
       </c>
       <c r="P18" t="n">
-        <v>415.4765238771483</v>
+        <v>218.6991694757516</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.42769547644028</v>
+        <v>14.42769547644016</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K19" t="n">
         <v>185.5440112890221</v>
@@ -36051,7 +36053,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N19" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O19" t="n">
         <v>257.9176141924233</v>
@@ -36060,7 +36062,7 @@
         <v>209.9229681520754</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.74782875394213</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798122</v>
       </c>
       <c r="K20" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814893</v>
       </c>
       <c r="L20" t="n">
-        <v>538.6675405538414</v>
+        <v>538.667540553841</v>
       </c>
       <c r="M20" t="n">
-        <v>616.1457173461274</v>
+        <v>616.1457173461271</v>
       </c>
       <c r="N20" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124815</v>
       </c>
       <c r="O20" t="n">
-        <v>531.6229853864431</v>
+        <v>531.6229853864428</v>
       </c>
       <c r="P20" t="n">
-        <v>415.6729862650352</v>
+        <v>415.6729862650349</v>
       </c>
       <c r="Q20" t="n">
-        <v>234.1513240212894</v>
+        <v>234.1513240212891</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>113.5378501197629</v>
       </c>
       <c r="K21" t="n">
-        <v>321.9541114274841</v>
+        <v>321.954111427484</v>
       </c>
       <c r="L21" t="n">
-        <v>494.931677133318</v>
+        <v>494.9316771333179</v>
       </c>
       <c r="M21" t="n">
-        <v>630.0661870786487</v>
+        <v>630.0661870786485</v>
       </c>
       <c r="N21" t="n">
-        <v>201.3652429045326</v>
+        <v>662.6078343185083</v>
       </c>
       <c r="O21" t="n">
-        <v>539.0701737655886</v>
+        <v>145.2078544888588</v>
       </c>
       <c r="P21" t="n">
-        <v>415.4765238771483</v>
+        <v>234.5584016201401</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.42769547644028</v>
+        <v>14.42769547644016</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.33023601597661</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K22" t="n">
         <v>185.5440112890221</v>
@@ -36288,7 +36290,7 @@
         <v>288.5430527135248</v>
       </c>
       <c r="N22" t="n">
-        <v>289.311440942681</v>
+        <v>289.3114409426809</v>
       </c>
       <c r="O22" t="n">
         <v>257.9176141924233</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>113.537850119763</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>321.9541114274841</v>
       </c>
       <c r="L24" t="n">
-        <v>314.0135548763087</v>
+        <v>494.931677133318</v>
       </c>
       <c r="M24" t="n">
-        <v>630.0661870786487</v>
+        <v>164.3611233286488</v>
       </c>
       <c r="N24" t="n">
         <v>662.6078343185085</v>
       </c>
       <c r="O24" t="n">
-        <v>145.207854488859</v>
+        <v>539.0701737655886</v>
       </c>
       <c r="P24" t="n">
-        <v>415.4765238771483</v>
+        <v>209.8617084773228</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.42769547644028</v>
+        <v>224.5049832122894</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597668</v>
       </c>
       <c r="K25" t="n">
-        <v>185.5440112890221</v>
+        <v>185.5440112890222</v>
       </c>
       <c r="L25" t="n">
         <v>268.3532559136145</v>
@@ -36531,10 +36533,10 @@
         <v>257.9176141924234</v>
       </c>
       <c r="P25" t="n">
-        <v>209.9229681520755</v>
+        <v>209.9229681520747</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.74782875394217</v>
+        <v>88.7478287539422</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.33023601597667</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K28" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L28" t="n">
         <v>268.3532559136145</v>
       </c>
       <c r="M28" t="n">
-        <v>288.5430527135249</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N28" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O28" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P28" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.74782875394219</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>179.1742886534454</v>
+        <v>57.48887441490555</v>
       </c>
       <c r="L30" t="n">
         <v>494.931677133318</v>
@@ -36929,7 +36931,7 @@
         <v>97.01375523721117</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.42769547644028</v>
+        <v>136.1131097149798</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.33023601597667</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K31" t="n">
-        <v>185.5440112890222</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L31" t="n">
         <v>268.3532559136145</v>
       </c>
       <c r="M31" t="n">
-        <v>288.5430527135249</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N31" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O31" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P31" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.74782875394219</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.33023601597665</v>
+        <v>68.33023601597662</v>
       </c>
       <c r="K34" t="n">
         <v>185.5440112890221</v>
       </c>
       <c r="L34" t="n">
-        <v>268.3532559136145</v>
+        <v>268.3532559136144</v>
       </c>
       <c r="M34" t="n">
-        <v>288.5430527135249</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N34" t="n">
         <v>289.311440942681</v>
       </c>
       <c r="O34" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P34" t="n">
         <v>209.9229681520755</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.74782875394217</v>
+        <v>88.74782875394214</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>616.1457173461274</v>
       </c>
       <c r="N35" t="n">
-        <v>611.3358037124817</v>
+        <v>611.3358037124812</v>
       </c>
       <c r="O35" t="n">
         <v>531.6229853864431</v>
@@ -37324,7 +37326,7 @@
         <v>415.6729862650352</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.151324021289</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>57.48887441490555</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L36" t="n">
         <v>494.931677133318</v>
       </c>
       <c r="M36" t="n">
-        <v>433.2888326772514</v>
+        <v>630.0661870786487</v>
       </c>
       <c r="N36" t="n">
-        <v>662.6078343185085</v>
+        <v>201.3652429045326</v>
       </c>
       <c r="O36" t="n">
         <v>539.0701737655886</v>
@@ -37552,7 +37554,7 @@
         <v>616.1457173461274</v>
       </c>
       <c r="N38" t="n">
-        <v>611.3358037124812</v>
+        <v>611.3358037124817</v>
       </c>
       <c r="O38" t="n">
         <v>531.6229853864431</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K39" t="n">
-        <v>57.48887441490555</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L39" t="n">
-        <v>494.931677133318</v>
+        <v>124.0913318298589</v>
       </c>
       <c r="M39" t="n">
         <v>630.0661870786487</v>
       </c>
       <c r="N39" t="n">
-        <v>662.6078343185085</v>
+        <v>458.6677380882286</v>
       </c>
       <c r="O39" t="n">
         <v>539.0701737655886</v>
       </c>
       <c r="P39" t="n">
-        <v>218.6991694757507</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q39" t="n">
         <v>14.42769547644028</v>
@@ -37713,7 +37715,7 @@
         <v>289.311440942681</v>
       </c>
       <c r="O40" t="n">
-        <v>257.9176141924234</v>
+        <v>257.9176141924232</v>
       </c>
       <c r="P40" t="n">
         <v>209.9229681520755</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>179.9341155798124</v>
+        <v>179.9341155798118</v>
       </c>
       <c r="K41" t="n">
         <v>391.6390448814896</v>
@@ -37798,7 +37800,7 @@
         <v>415.6729862650352</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.151324021289</v>
+        <v>234.1513240212893</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>321.9541114274841</v>
+        <v>57.48887441490555</v>
       </c>
       <c r="L42" t="n">
         <v>494.931677133318</v>
@@ -37868,16 +37870,16 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N42" t="n">
-        <v>183.265459974955</v>
+        <v>662.6078343185085</v>
       </c>
       <c r="O42" t="n">
         <v>539.0701737655886</v>
       </c>
       <c r="P42" t="n">
-        <v>415.4765238771483</v>
+        <v>218.6991694757507</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.52747840601704</v>
+        <v>14.42769547644028</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.93025611631147</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K43" t="n">
-        <v>142.144031389357</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L43" t="n">
-        <v>224.9532760139493</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M43" t="n">
-        <v>245.1430728138597</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N43" t="n">
-        <v>245.9114610430158</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O43" t="n">
-        <v>214.5176342927582</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P43" t="n">
-        <v>166.5229882524103</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.34784885427699</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>179.9341155798118</v>
+        <v>179.9341155798124</v>
       </c>
       <c r="K44" t="n">
-        <v>391.6390448814896</v>
+        <v>391.6390448814889</v>
       </c>
       <c r="L44" t="n">
         <v>538.6675405538414</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>113.537850119763</v>
       </c>
       <c r="K45" t="n">
-        <v>57.48887441490555</v>
+        <v>321.9541114274841</v>
       </c>
       <c r="L45" t="n">
         <v>494.931677133318</v>
@@ -38105,16 +38107,16 @@
         <v>630.0661870786487</v>
       </c>
       <c r="N45" t="n">
-        <v>662.6078343185085</v>
+        <v>271.6124243256498</v>
       </c>
       <c r="O45" t="n">
-        <v>539.0701737655886</v>
+        <v>145.207854488859</v>
       </c>
       <c r="P45" t="n">
-        <v>218.6991694757507</v>
+        <v>415.4765238771483</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.42769547644028</v>
+        <v>224.5049832122894</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.93025611631147</v>
+        <v>68.33023601597664</v>
       </c>
       <c r="K46" t="n">
-        <v>142.144031389357</v>
+        <v>185.5440112890221</v>
       </c>
       <c r="L46" t="n">
-        <v>224.9532760139493</v>
+        <v>268.3532559136145</v>
       </c>
       <c r="M46" t="n">
-        <v>245.1430728138597</v>
+        <v>288.5430527135248</v>
       </c>
       <c r="N46" t="n">
-        <v>245.9114610430158</v>
+        <v>289.311440942681</v>
       </c>
       <c r="O46" t="n">
-        <v>214.5176342927582</v>
+        <v>257.9176141924233</v>
       </c>
       <c r="P46" t="n">
-        <v>166.5229882524103</v>
+        <v>209.9229681520755</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.34784885427699</v>
+        <v>88.74782875394216</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
